--- a/public/excel/template-kelas.xlsx
+++ b/public/excel/template-kelas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ketuntasan\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A3E763-6362-4E35-AEDD-0843F28FEFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F0E4CE-CAA5-4A12-9DA4-6CBE0F496D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29CE4F8C-498B-4BC1-B0DB-ECC51EC75870}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29CE4F8C-498B-4BC1-B0DB-ECC51EC75870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,33 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PETUNJUK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-MASUKKAN KODE JURUSAN
-DI DALAM SYMBOL [ ]
-</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <t xml:space="preserve">SILAHKAN MASUKKAN 
@@ -96,17 +67,14 @@
     </r>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>Nama Kelas 1</t>
+    <t>NAMA KELAS 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +90,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +101,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,19 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,40 +439,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5ED670-8457-4E39-804C-1B973694182F}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
